--- a/DICROISMO/concentrazioni_dicroismo.xlsx
+++ b/DICROISMO/concentrazioni_dicroismo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jocar\Desktop\LaboratorioBiofisica\DICROISMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A21346C-8212-4137-ACF9-4D4E0978F5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD259487-BC4F-4AFF-86CA-9D8E63E6A1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FAFF7D0-CAE3-452E-A086-8C04C21EF91F}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>C teorica</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>m BLG [mg]</t>
   </si>
   <si>
@@ -72,6 +69,15 @@
   </si>
   <si>
     <t>d PBS/BLG [mg/L]</t>
+  </si>
+  <si>
+    <t>C GuHCl</t>
+  </si>
+  <si>
+    <t>C BLG</t>
+  </si>
+  <si>
+    <t>CstockBLG</t>
   </si>
 </sst>
 </file>
@@ -124,10 +130,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -465,142 +470,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F495433D-310A-4F2D-A288-54E320AC2547}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="19.44140625" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
       </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <f>I2/SUM(F2:H2)</f>
+        <f>J2/SUM(G2:I2)</f>
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <f>$N$2*E2/SUM(D2:F2)</f>
+        <v>4.055372148859544E-6</v>
+      </c>
+      <c r="D2" s="1">
         <v>1928.7</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>70.5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>C2/$K$2</f>
+      <c r="G2">
+        <f>D2/$L$2</f>
         <v>1.9287E-3</v>
       </c>
-      <c r="G2">
-        <f>D2/$K$2</f>
+      <c r="H2">
+        <f>E2/$L$2</f>
         <v>7.0500000000000006E-5</v>
       </c>
-      <c r="H2">
-        <f>E2/$J$2</f>
+      <c r="I2">
+        <f>F2/$K$2</f>
         <v>0</v>
       </c>
-      <c r="I2">
-        <f>E2/($L$2*1000)</f>
+      <c r="J2">
+        <f>F2/($M$2*1000)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="3">
         <v>1180000</v>
       </c>
-      <c r="K2" s="5">
+      <c r="L2" s="4">
         <v>1000000</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="2">
         <v>95.53</v>
       </c>
+      <c r="N2">
+        <v>1.15E-4</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B7" si="0">I3/SUM(F3:H3)</f>
+        <f t="shared" ref="B3:B7" si="0">J3/SUM(G3:I3)</f>
         <v>1.5294994550795757</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="1">$N$2*E3/SUM(D3:F3)</f>
+        <v>3.5205236735899201E-6</v>
+      </c>
+      <c r="D3" s="1">
         <v>1679.2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>62.2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>290.39999999999998</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F7" si="1">C3/$K$2</f>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="2">D3/$L$2</f>
         <v>1.6792000000000001E-3</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G7" si="2">D3/$K$2</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H7" si="3">E3/$L$2</f>
         <v>6.2200000000000008E-5</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H7" si="3">E3/$J$2</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="4">F3/$K$2</f>
         <v>2.4610169491525423E-4</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I7" si="4">E3/($L$2*1000)</f>
+      <c r="J3">
+        <f t="shared" ref="J3:J7" si="5">F3/($M$2*1000)</f>
         <v>3.0398827593426147E-3</v>
       </c>
-      <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -608,33 +631,37 @@
         <f t="shared" si="0"/>
         <v>3.0933014712096507</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>3.5814660083554877E-6</v>
+      </c>
+      <c r="D4" s="1">
         <v>1445.2</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>65.599999999999994</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>595.6</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>1.4452E-3</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>6.5599999999999995E-5</v>
+        <v>1.4452E-3</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>5.0474576271186439E-4</v>
+        <v>6.5599999999999995E-5</v>
       </c>
       <c r="I4">
         <f t="shared" si="4"/>
+        <v>5.0474576271186439E-4</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
         <v>6.2346906730869883E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -642,33 +669,37 @@
         <f t="shared" si="0"/>
         <v>4.6681484837775891</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>3.6443851518981419E-6</v>
+      </c>
+      <c r="D5" s="1">
         <v>1176.5999999999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>67.7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <v>892</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>1.1765999999999999E-3</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>6.7700000000000006E-5</v>
+        <v>1.1765999999999999E-3</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>7.5593220338983054E-4</v>
+        <v>6.7700000000000006E-5</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
+        <v>7.5593220338983054E-4</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
         <v>9.3373809274573429E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -676,33 +707,37 @@
         <f t="shared" si="0"/>
         <v>6.1301500046071036</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>3.6634204059342856E-6</v>
+      </c>
+      <c r="D6" s="1">
         <v>946.1</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>70</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <v>1181.3</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>9.4610000000000007E-4</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>6.9999999999999994E-5</v>
+        <v>9.4610000000000007E-4</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>1.0011016949152541E-3</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
+        <v>1.0011016949152541E-3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
         <v>1.2365748979378205E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -710,29 +745,33 @@
         <f t="shared" si="0"/>
         <v>7.7359300449099839</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>3.5787107114237385E-6</v>
+      </c>
+      <c r="D7" s="1">
         <v>684.5</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>69.900000000000006</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <v>1491.8</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>6.845E-4</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>6.9900000000000005E-5</v>
+        <v>6.845E-4</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>1.2642372881355932E-3</v>
+        <v>6.9900000000000005E-5</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
+        <v>1.2642372881355932E-3</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
         <v>1.5616036847063749E-2</v>
       </c>
     </row>

--- a/DICROISMO/concentrazioni_dicroismo.xlsx
+++ b/DICROISMO/concentrazioni_dicroismo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jocar\Desktop\LaboratorioBiofisica\DICROISMO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD259487-BC4F-4AFF-86CA-9D8E63E6A1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BCB02A-F638-440E-91AC-84161E8A9482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6FAFF7D0-CAE3-452E-A086-8C04C21EF91F}"/>
   </bookViews>
@@ -84,8 +84,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -130,12 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,12 +475,12 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="11.77734375" customWidth="1"/>
@@ -543,7 +545,7 @@
         <f>J2/SUM(G2:I2)</f>
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <f>$N$2*E2/SUM(D2:F2)</f>
         <v>4.055372148859544E-6</v>
       </c>
@@ -593,7 +595,7 @@
         <f t="shared" ref="B3:B7" si="0">J3/SUM(G3:I3)</f>
         <v>1.5294994550795757</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <f t="shared" ref="C3:C7" si="1">$N$2*E3/SUM(D3:F3)</f>
         <v>3.5205236735899201E-6</v>
       </c>
@@ -631,7 +633,7 @@
         <f t="shared" si="0"/>
         <v>3.0933014712096507</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <f t="shared" si="1"/>
         <v>3.5814660083554877E-6</v>
       </c>
@@ -669,7 +671,7 @@
         <f t="shared" si="0"/>
         <v>4.6681484837775891</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <f t="shared" si="1"/>
         <v>3.6443851518981419E-6</v>
       </c>
@@ -707,7 +709,7 @@
         <f t="shared" si="0"/>
         <v>6.1301500046071036</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <f t="shared" si="1"/>
         <v>3.6634204059342856E-6</v>
       </c>
@@ -745,7 +747,7 @@
         <f t="shared" si="0"/>
         <v>7.7359300449099839</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f t="shared" si="1"/>
         <v>3.5787107114237385E-6</v>
       </c>
